--- a/ticker_list.xlsx
+++ b/ticker_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trading\code\EMA-Stock-Screener\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>BAJAJ-AUTO.NS</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>WIPRO.NS</t>
+  </si>
+  <si>
+    <t>IRCTC.NS</t>
   </si>
 </sst>
 </file>
@@ -915,15 +918,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1013,6 +1016,9 @@
       </c>
       <c r="AD1" t="s">
         <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ticker_list.xlsx
+++ b/ticker_list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>BAJAJ-AUTO.NS</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>IRCTC.NS</t>
+  </si>
+  <si>
+    <t>TATACHEM.NS</t>
   </si>
 </sst>
 </file>
@@ -918,15 +921,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1019,6 +1022,9 @@
       </c>
       <c r="AE1" t="s">
         <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ticker_list.xlsx
+++ b/ticker_list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>BAJAJ-AUTO.NS</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>IRCTC.NS</t>
-  </si>
-  <si>
-    <t>TATACHEM.NS</t>
   </si>
 </sst>
 </file>
@@ -921,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AF2" sqref="AF2"/>
@@ -929,7 +926,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1022,9 +1019,6 @@
       </c>
       <c r="AE1" t="s">
         <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ticker_list.xlsx
+++ b/ticker_list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>BAJAJ-AUTO.NS</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>IRCTC.NS</t>
+  </si>
+  <si>
+    <t>GRPAHITE.NS</t>
   </si>
 </sst>
 </file>
@@ -918,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AF2" sqref="AF2"/>
@@ -926,7 +929,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1019,6 +1022,9 @@
       </c>
       <c r="AE1" t="s">
         <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
